--- a/Data/questionnaires_alternative_names.xlsx
+++ b/Data/questionnaires_alternative_names.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>ATHENS</t>
   </si>
@@ -42,9 +42,6 @@
     <t>sci_father</t>
   </si>
   <si>
-    <t>mast</t>
-  </si>
-  <si>
     <t>maris_sci_sf</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>sas</t>
   </si>
   <si>
-    <t>immirisk_adolescents_mast_athens</t>
-  </si>
-  <si>
     <t>sciafca</t>
   </si>
   <si>
@@ -178,6 +172,9 @@
   </si>
   <si>
     <t>alternative_name</t>
+  </si>
+  <si>
+    <t>AIS</t>
   </si>
 </sst>
 </file>
@@ -504,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -518,10 +515,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -529,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -537,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -561,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -569,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -577,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -585,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -593,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -601,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -609,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -633,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -641,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -649,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -657,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -665,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -689,57 +686,49 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1">
+    <row r="31" spans="1:2">
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
